--- a/AAII_Financials/Yearly/KAOOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KAOOY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
   <si>
     <t>KAOOY</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -665,8 +665,8 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -687,11 +687,11 @@
       <c r="D7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44196</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
@@ -711,14 +711,14 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>11183100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10229300</v>
+      </c>
+      <c r="F8" s="3">
+        <v>9964200</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -738,14 +738,14 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>7229600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6096600</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5705300</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -765,14 +765,14 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>3953500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4132700</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4258900</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -805,14 +805,14 @@
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>436900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>425300</v>
+      </c>
+      <c r="F12" s="3">
+        <v>421800</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -859,11 +859,11 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>32800</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -886,14 +886,14 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>191100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>188800</v>
+      </c>
+      <c r="F15" s="3">
+        <v>196200</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -923,14 +923,14 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>10389500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9194600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>8698400</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -950,14 +950,14 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>793600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1034700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1265800</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -990,14 +990,14 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>64700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>19000</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1017,8 +1017,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>1503700</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1044,14 +1044,14 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>30500</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1071,14 +1071,14 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>835300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1081500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1254300</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1098,14 +1098,14 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>200600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>276800</v>
+      </c>
+      <c r="F24" s="3">
+        <v>329900</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1152,14 +1152,14 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>634600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>804700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>924400</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1179,14 +1179,14 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>622300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>791900</v>
+      </c>
+      <c r="F27" s="3">
+        <v>910500</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1233,14 +1233,14 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-1000</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1314,14 +1314,14 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-19000</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1341,14 +1341,14 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>620300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>790500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>909500</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1395,14 +1395,14 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>620300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>790500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>909500</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1430,11 +1430,11 @@
       <c r="D38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44196</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
@@ -1480,8 +1480,8 @@
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
+      <c r="D41" s="3">
+        <v>1811500</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
@@ -1507,8 +1507,8 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>148600</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1534,8 +1534,8 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>1692700</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -1561,8 +1561,8 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>2007100</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1588,8 +1588,8 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>160000</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
@@ -1615,8 +1615,8 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>5820000</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
@@ -1642,8 +1642,8 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>262300</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1669,8 +1669,8 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>4167000</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -1696,8 +1696,8 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>1817200</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>3</v>
@@ -1777,8 +1777,8 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>380400</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1831,8 +1831,8 @@
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>3</v>
+      <c r="D54" s="3">
+        <v>12447000</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>3</v>
@@ -1884,8 +1884,8 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>1241400</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -1911,8 +1911,8 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>613600</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -1938,8 +1938,8 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>1653600</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -1965,8 +1965,8 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>3508600</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -1993,7 +1993,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1281800</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2019,8 +2019,8 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>479900</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2127,8 +2127,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>5438400</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>3</v>
@@ -2275,8 +2275,8 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>5338500</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2383,8 +2383,8 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>7008600</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2445,11 +2445,11 @@
       <c r="D80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44196</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
@@ -2469,14 +2469,14 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>620300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>790500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>909500</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2509,8 +2509,8 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>647000</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>3</v>
@@ -2671,8 +2671,8 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>943800</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>3</v>
@@ -2711,8 +2711,8 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-472400</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
@@ -2792,8 +2792,8 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-540100</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
@@ -2833,7 +2833,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-497000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -2940,8 +2940,8 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-1004400</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
@@ -2967,8 +2967,8 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>111700</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>3</v>
@@ -2994,8 +2994,8 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-489000</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/KAOOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KAOOY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>KAOOY</t>
   </si>
@@ -665,8 +665,8 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -693,8 +693,8 @@
       <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
+      <c r="G7" s="2">
+        <v>43830</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
@@ -712,16 +712,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>11183100</v>
+        <v>10655800</v>
       </c>
       <c r="E8" s="3">
-        <v>10229300</v>
+        <v>9746900</v>
       </c>
       <c r="F8" s="3">
-        <v>9964200</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>9494300</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10320400</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -739,16 +739,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>7229600</v>
+        <v>6888700</v>
       </c>
       <c r="E9" s="3">
-        <v>6096600</v>
+        <v>5809100</v>
       </c>
       <c r="F9" s="3">
-        <v>5705300</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>5436300</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5830700</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -766,16 +766,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3953500</v>
+        <v>3767100</v>
       </c>
       <c r="E10" s="3">
-        <v>4132700</v>
+        <v>3937800</v>
       </c>
       <c r="F10" s="3">
-        <v>4258900</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>4058100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>4489700</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -806,16 +806,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>436900</v>
+        <v>416300</v>
       </c>
       <c r="E12" s="3">
-        <v>425300</v>
+        <v>405300</v>
       </c>
       <c r="F12" s="3">
-        <v>421800</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+        <v>402000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>406300</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -863,13 +863,13 @@
         <v>200</v>
       </c>
       <c r="E14" s="3">
-        <v>32800</v>
+        <v>31300</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>5200</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -887,16 +887,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>191100</v>
+        <v>182100</v>
       </c>
       <c r="E15" s="3">
-        <v>188800</v>
+        <v>179900</v>
       </c>
       <c r="F15" s="3">
-        <v>196200</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+        <v>187000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>183600</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -924,16 +924,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10389500</v>
+        <v>9899600</v>
       </c>
       <c r="E17" s="3">
-        <v>9194600</v>
+        <v>8761000</v>
       </c>
       <c r="F17" s="3">
-        <v>8698400</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>8288200</v>
+      </c>
+      <c r="G17" s="3">
+        <v>8865900</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -951,16 +951,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>793600</v>
+        <v>756200</v>
       </c>
       <c r="E18" s="3">
-        <v>1034700</v>
+        <v>985900</v>
       </c>
       <c r="F18" s="3">
-        <v>1265800</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>1206100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1454500</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -991,16 +991,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>58600</v>
+        <v>55900</v>
       </c>
       <c r="E20" s="3">
-        <v>64700</v>
+        <v>61700</v>
       </c>
       <c r="F20" s="3">
-        <v>19000</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+        <v>18100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>17800</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1018,16 +1018,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1503700</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>1428500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1647600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1815600</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2045100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1045,16 +1045,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>17000</v>
+        <v>16200</v>
       </c>
       <c r="E22" s="3">
-        <v>17900</v>
+        <v>17100</v>
       </c>
       <c r="F22" s="3">
-        <v>30500</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+        <v>29000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>25200</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1072,16 +1072,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>835300</v>
+        <v>795900</v>
       </c>
       <c r="E23" s="3">
-        <v>1081500</v>
+        <v>1030500</v>
       </c>
       <c r="F23" s="3">
-        <v>1254300</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>1195200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1447100</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1099,16 +1099,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200600</v>
+        <v>191200</v>
       </c>
       <c r="E24" s="3">
-        <v>276800</v>
+        <v>263700</v>
       </c>
       <c r="F24" s="3">
-        <v>329900</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+        <v>314400</v>
+      </c>
+      <c r="G24" s="3">
+        <v>413700</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1153,16 +1153,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>634600</v>
+        <v>604700</v>
       </c>
       <c r="E26" s="3">
-        <v>804700</v>
+        <v>766800</v>
       </c>
       <c r="F26" s="3">
-        <v>924400</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>880800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1033400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1180,16 +1180,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>622300</v>
+        <v>593000</v>
       </c>
       <c r="E27" s="3">
-        <v>791900</v>
+        <v>754600</v>
       </c>
       <c r="F27" s="3">
-        <v>910500</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>867600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1018800</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1234,7 +1234,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="E29" s="3">
         <v>-1400</v>
@@ -1242,8 +1242,8 @@
       <c r="F29" s="3">
         <v>-1000</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
+      <c r="G29" s="3">
+        <v>-500</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1315,16 +1315,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-58600</v>
+        <v>-55900</v>
       </c>
       <c r="E32" s="3">
-        <v>-64700</v>
+        <v>-61700</v>
       </c>
       <c r="F32" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+        <v>-18100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-17800</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1342,16 +1342,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>620300</v>
+        <v>591100</v>
       </c>
       <c r="E33" s="3">
-        <v>790500</v>
+        <v>753200</v>
       </c>
       <c r="F33" s="3">
-        <v>909500</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>866600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1018200</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1396,16 +1396,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>620300</v>
+        <v>591100</v>
       </c>
       <c r="E35" s="3">
-        <v>790500</v>
+        <v>753200</v>
       </c>
       <c r="F35" s="3">
-        <v>909500</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>866600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1018200</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1436,8 +1436,8 @@
       <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
+      <c r="G38" s="2">
+        <v>43830</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
@@ -1481,16 +1481,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1811500</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>1726100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2157700</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2255900</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1647300</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1508,16 +1508,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>148600</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>141600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>193000</v>
+      </c>
+      <c r="F42" s="3">
+        <v>220200</v>
+      </c>
+      <c r="G42" s="3">
+        <v>437500</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1692700</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>1612900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1502600</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1388900</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1451500</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1562,16 +1562,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2007100</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+        <v>1912500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1566800</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1357800</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1371700</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1589,16 +1589,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>160000</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>152500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>143200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>124700</v>
+      </c>
+      <c r="G45" s="3">
+        <v>155300</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1616,16 +1616,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5820000</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>5545500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5563300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>5347600</v>
+      </c>
+      <c r="G46" s="3">
+        <v>5063400</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1643,16 +1643,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>262300</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>250000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>231100</v>
+      </c>
+      <c r="F47" s="3">
+        <v>221700</v>
+      </c>
+      <c r="G47" s="3">
+        <v>236300</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1670,16 +1670,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4167000</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>3970500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3934200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3987700</v>
+      </c>
+      <c r="G48" s="3">
+        <v>4133400</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1697,16 +1697,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1817200</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+        <v>1731500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1622200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1547700</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1562800</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1778,16 +1778,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>380400</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>362500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>355700</v>
+      </c>
+      <c r="F52" s="3">
+        <v>338100</v>
+      </c>
+      <c r="G52" s="3">
+        <v>366700</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1832,16 +1832,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12447000</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>11860000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>11706500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>11442800</v>
+      </c>
+      <c r="G54" s="3">
+        <v>11362400</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1885,16 +1885,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1241400</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>1182800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1071600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>945900</v>
+      </c>
+      <c r="G57" s="3">
+        <v>995200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1912,16 +1912,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>613600</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>584700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>179200</v>
+      </c>
+      <c r="F58" s="3">
+        <v>345200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>310200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -1939,16 +1939,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1653600</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>1575600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1647600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1631400</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1666000</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1966,16 +1966,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3508600</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>3343100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2898400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2922500</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2971500</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1993,16 +1993,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1281800</v>
+        <v>1221300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>1666600</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1538600</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>1669900</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2020,16 +2020,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>479900</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>457300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>382200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>536300</v>
+      </c>
+      <c r="G62" s="3">
+        <v>734400</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2128,16 +2128,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5438400</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>5182000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5076000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>5097100</v>
+      </c>
+      <c r="G66" s="3">
+        <v>5470100</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2276,16 +2276,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5338500</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>5086800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>5371900</v>
+      </c>
+      <c r="F72" s="3">
+        <v>5352800</v>
+      </c>
+      <c r="G72" s="3">
+        <v>4817800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2384,16 +2384,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7008600</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>6678100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6630500</v>
+      </c>
+      <c r="F76" s="3">
+        <v>6345700</v>
+      </c>
+      <c r="G76" s="3">
+        <v>5892400</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2451,8 +2451,8 @@
       <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
+      <c r="G80" s="2">
+        <v>43830</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
@@ -2470,16 +2470,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>620300</v>
+        <v>591100</v>
       </c>
       <c r="E81" s="3">
-        <v>790500</v>
+        <v>753200</v>
       </c>
       <c r="F81" s="3">
-        <v>909500</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>866600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1018200</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2510,16 +2510,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>647000</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>616500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>600000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>591400</v>
+      </c>
+      <c r="G83" s="3">
+        <v>572700</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2672,16 +2672,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>943800</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>899300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1205800</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1475100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>1679900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2712,16 +2712,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-472400</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-450100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-411900</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-408100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-576800</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2793,16 +2793,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-540100</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-514600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-461900</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-425500</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-647600</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2833,16 +2833,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-497000</v>
+        <v>-473600</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-466200</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-446500</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-415700</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -2941,16 +2941,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1004400</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>-957100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-972600</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-598100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-866800</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2968,16 +2968,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>111700</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+        <v>106500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>111100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-2700</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -2995,16 +2995,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-489000</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>-465900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-117500</v>
+      </c>
+      <c r="F102" s="3">
+        <v>436200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>162800</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/KAOOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KAOOY_YR_FIN.xlsx
@@ -712,16 +712,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>10655800</v>
+        <v>10299000</v>
       </c>
       <c r="E8" s="3">
-        <v>9746900</v>
+        <v>9420600</v>
       </c>
       <c r="F8" s="3">
-        <v>9494300</v>
+        <v>9176500</v>
       </c>
       <c r="G8" s="3">
-        <v>10320400</v>
+        <v>9974900</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -739,16 +739,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>6888700</v>
+        <v>6658000</v>
       </c>
       <c r="E9" s="3">
-        <v>5809100</v>
+        <v>5614600</v>
       </c>
       <c r="F9" s="3">
-        <v>5436300</v>
+        <v>5254300</v>
       </c>
       <c r="G9" s="3">
-        <v>5830700</v>
+        <v>5635500</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -766,16 +766,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3767100</v>
+        <v>3641000</v>
       </c>
       <c r="E10" s="3">
-        <v>3937800</v>
+        <v>3806000</v>
       </c>
       <c r="F10" s="3">
-        <v>4058100</v>
+        <v>3922200</v>
       </c>
       <c r="G10" s="3">
-        <v>4489700</v>
+        <v>4339400</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -806,16 +806,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>416300</v>
+        <v>402400</v>
       </c>
       <c r="E12" s="3">
-        <v>405300</v>
+        <v>391700</v>
       </c>
       <c r="F12" s="3">
-        <v>402000</v>
+        <v>388500</v>
       </c>
       <c r="G12" s="3">
-        <v>406300</v>
+        <v>392700</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -863,13 +863,13 @@
         <v>200</v>
       </c>
       <c r="E14" s="3">
-        <v>31300</v>
+        <v>30200</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -887,16 +887,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>182100</v>
+        <v>176000</v>
       </c>
       <c r="E15" s="3">
-        <v>179900</v>
+        <v>173900</v>
       </c>
       <c r="F15" s="3">
-        <v>187000</v>
+        <v>180700</v>
       </c>
       <c r="G15" s="3">
-        <v>183600</v>
+        <v>177500</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -924,16 +924,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9899600</v>
+        <v>9568200</v>
       </c>
       <c r="E17" s="3">
-        <v>8761000</v>
+        <v>8467700</v>
       </c>
       <c r="F17" s="3">
-        <v>8288200</v>
+        <v>8010700</v>
       </c>
       <c r="G17" s="3">
-        <v>8865900</v>
+        <v>8569000</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -951,16 +951,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>756200</v>
+        <v>730900</v>
       </c>
       <c r="E18" s="3">
-        <v>985900</v>
+        <v>952900</v>
       </c>
       <c r="F18" s="3">
-        <v>1206100</v>
+        <v>1165700</v>
       </c>
       <c r="G18" s="3">
-        <v>1454500</v>
+        <v>1405800</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -991,16 +991,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>55900</v>
+        <v>54000</v>
       </c>
       <c r="E20" s="3">
-        <v>61700</v>
+        <v>59600</v>
       </c>
       <c r="F20" s="3">
-        <v>18100</v>
+        <v>17500</v>
       </c>
       <c r="G20" s="3">
-        <v>17800</v>
+        <v>17200</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1018,16 +1018,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1428500</v>
+        <v>1378000</v>
       </c>
       <c r="E21" s="3">
-        <v>1647600</v>
+        <v>1589900</v>
       </c>
       <c r="F21" s="3">
-        <v>1815600</v>
+        <v>1752200</v>
       </c>
       <c r="G21" s="3">
-        <v>2045100</v>
+        <v>1974100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1045,16 +1045,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>16200</v>
+        <v>15600</v>
       </c>
       <c r="E22" s="3">
-        <v>17100</v>
+        <v>16500</v>
       </c>
       <c r="F22" s="3">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="G22" s="3">
-        <v>25200</v>
+        <v>24300</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1072,16 +1072,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>795900</v>
+        <v>769200</v>
       </c>
       <c r="E23" s="3">
-        <v>1030500</v>
+        <v>996000</v>
       </c>
       <c r="F23" s="3">
-        <v>1195200</v>
+        <v>1155200</v>
       </c>
       <c r="G23" s="3">
-        <v>1447100</v>
+        <v>1398700</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1099,16 +1099,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>191200</v>
+        <v>184800</v>
       </c>
       <c r="E24" s="3">
-        <v>263700</v>
+        <v>254900</v>
       </c>
       <c r="F24" s="3">
-        <v>314400</v>
+        <v>303800</v>
       </c>
       <c r="G24" s="3">
-        <v>413700</v>
+        <v>399800</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1153,16 +1153,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>604700</v>
+        <v>584500</v>
       </c>
       <c r="E26" s="3">
-        <v>766800</v>
+        <v>741100</v>
       </c>
       <c r="F26" s="3">
-        <v>880800</v>
+        <v>851300</v>
       </c>
       <c r="G26" s="3">
-        <v>1033400</v>
+        <v>998800</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1180,16 +1180,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>593000</v>
+        <v>573100</v>
       </c>
       <c r="E27" s="3">
-        <v>754600</v>
+        <v>729300</v>
       </c>
       <c r="F27" s="3">
-        <v>867600</v>
+        <v>838500</v>
       </c>
       <c r="G27" s="3">
-        <v>1018800</v>
+        <v>984700</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1237,7 +1237,7 @@
         <v>-1900</v>
       </c>
       <c r="E29" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="F29" s="3">
         <v>-1000</v>
@@ -1315,16 +1315,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-55900</v>
+        <v>-54000</v>
       </c>
       <c r="E32" s="3">
-        <v>-61700</v>
+        <v>-59600</v>
       </c>
       <c r="F32" s="3">
-        <v>-18100</v>
+        <v>-17500</v>
       </c>
       <c r="G32" s="3">
-        <v>-17800</v>
+        <v>-17200</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1342,16 +1342,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>591100</v>
+        <v>571300</v>
       </c>
       <c r="E33" s="3">
-        <v>753200</v>
+        <v>728000</v>
       </c>
       <c r="F33" s="3">
-        <v>866600</v>
+        <v>837600</v>
       </c>
       <c r="G33" s="3">
-        <v>1018200</v>
+        <v>984100</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1396,16 +1396,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>591100</v>
+        <v>571300</v>
       </c>
       <c r="E35" s="3">
-        <v>753200</v>
+        <v>728000</v>
       </c>
       <c r="F35" s="3">
-        <v>866600</v>
+        <v>837600</v>
       </c>
       <c r="G35" s="3">
-        <v>1018200</v>
+        <v>984100</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1481,16 +1481,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1726100</v>
+        <v>1668300</v>
       </c>
       <c r="E41" s="3">
-        <v>2157700</v>
+        <v>2085400</v>
       </c>
       <c r="F41" s="3">
-        <v>2255900</v>
+        <v>2180400</v>
       </c>
       <c r="G41" s="3">
-        <v>1647300</v>
+        <v>1592100</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1508,16 +1508,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>141600</v>
+        <v>136800</v>
       </c>
       <c r="E42" s="3">
-        <v>193000</v>
+        <v>186500</v>
       </c>
       <c r="F42" s="3">
-        <v>220200</v>
+        <v>212900</v>
       </c>
       <c r="G42" s="3">
-        <v>437500</v>
+        <v>422900</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1612900</v>
+        <v>1558900</v>
       </c>
       <c r="E43" s="3">
-        <v>1502600</v>
+        <v>1452300</v>
       </c>
       <c r="F43" s="3">
-        <v>1388900</v>
+        <v>1342400</v>
       </c>
       <c r="G43" s="3">
-        <v>1451500</v>
+        <v>1402900</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1562,16 +1562,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1912500</v>
+        <v>1848500</v>
       </c>
       <c r="E44" s="3">
-        <v>1566800</v>
+        <v>1514400</v>
       </c>
       <c r="F44" s="3">
-        <v>1357800</v>
+        <v>1312300</v>
       </c>
       <c r="G44" s="3">
-        <v>1371700</v>
+        <v>1325800</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1589,16 +1589,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>152500</v>
+        <v>147400</v>
       </c>
       <c r="E45" s="3">
-        <v>143200</v>
+        <v>138400</v>
       </c>
       <c r="F45" s="3">
-        <v>124700</v>
+        <v>120500</v>
       </c>
       <c r="G45" s="3">
-        <v>155300</v>
+        <v>150100</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1616,16 +1616,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5545500</v>
+        <v>5359800</v>
       </c>
       <c r="E46" s="3">
-        <v>5563300</v>
+        <v>5377000</v>
       </c>
       <c r="F46" s="3">
-        <v>5347600</v>
+        <v>5168500</v>
       </c>
       <c r="G46" s="3">
-        <v>5063400</v>
+        <v>4893900</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1643,16 +1643,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>250000</v>
+        <v>241600</v>
       </c>
       <c r="E47" s="3">
-        <v>231100</v>
+        <v>223400</v>
       </c>
       <c r="F47" s="3">
-        <v>221700</v>
+        <v>214200</v>
       </c>
       <c r="G47" s="3">
-        <v>236300</v>
+        <v>228400</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1670,16 +1670,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3970500</v>
+        <v>3837600</v>
       </c>
       <c r="E48" s="3">
-        <v>3934200</v>
+        <v>3802500</v>
       </c>
       <c r="F48" s="3">
-        <v>3987700</v>
+        <v>3854200</v>
       </c>
       <c r="G48" s="3">
-        <v>4133400</v>
+        <v>3995000</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1697,16 +1697,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1731500</v>
+        <v>1673600</v>
       </c>
       <c r="E49" s="3">
-        <v>1622200</v>
+        <v>1567900</v>
       </c>
       <c r="F49" s="3">
-        <v>1547700</v>
+        <v>1495900</v>
       </c>
       <c r="G49" s="3">
-        <v>1562800</v>
+        <v>1510400</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1778,16 +1778,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>362500</v>
+        <v>350300</v>
       </c>
       <c r="E52" s="3">
-        <v>355700</v>
+        <v>343800</v>
       </c>
       <c r="F52" s="3">
-        <v>338100</v>
+        <v>326800</v>
       </c>
       <c r="G52" s="3">
-        <v>366700</v>
+        <v>354400</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1832,16 +1832,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11860000</v>
+        <v>11463000</v>
       </c>
       <c r="E54" s="3">
-        <v>11706500</v>
+        <v>11314600</v>
       </c>
       <c r="F54" s="3">
-        <v>11442800</v>
+        <v>11059700</v>
       </c>
       <c r="G54" s="3">
-        <v>11362400</v>
+        <v>10982000</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1885,16 +1885,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1182800</v>
+        <v>1143200</v>
       </c>
       <c r="E57" s="3">
-        <v>1071600</v>
+        <v>1035700</v>
       </c>
       <c r="F57" s="3">
-        <v>945900</v>
+        <v>914200</v>
       </c>
       <c r="G57" s="3">
-        <v>995200</v>
+        <v>961900</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1912,16 +1912,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>584700</v>
+        <v>565100</v>
       </c>
       <c r="E58" s="3">
-        <v>179200</v>
+        <v>173200</v>
       </c>
       <c r="F58" s="3">
-        <v>345200</v>
+        <v>333700</v>
       </c>
       <c r="G58" s="3">
-        <v>310200</v>
+        <v>299800</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -1939,16 +1939,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1575600</v>
+        <v>1522800</v>
       </c>
       <c r="E59" s="3">
-        <v>1647600</v>
+        <v>1592500</v>
       </c>
       <c r="F59" s="3">
-        <v>1631400</v>
+        <v>1576800</v>
       </c>
       <c r="G59" s="3">
-        <v>1666000</v>
+        <v>1610200</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1966,16 +1966,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3343100</v>
+        <v>3231200</v>
       </c>
       <c r="E60" s="3">
-        <v>2898400</v>
+        <v>2801400</v>
       </c>
       <c r="F60" s="3">
-        <v>2922500</v>
+        <v>2824700</v>
       </c>
       <c r="G60" s="3">
-        <v>2971500</v>
+        <v>2872000</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1993,16 +1993,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1221300</v>
+        <v>1180500</v>
       </c>
       <c r="E61" s="3">
-        <v>1666600</v>
+        <v>1610800</v>
       </c>
       <c r="F61" s="3">
-        <v>1538600</v>
+        <v>1487100</v>
       </c>
       <c r="G61" s="3">
-        <v>1669900</v>
+        <v>1614000</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2020,16 +2020,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>457300</v>
+        <v>442000</v>
       </c>
       <c r="E62" s="3">
-        <v>382200</v>
+        <v>369400</v>
       </c>
       <c r="F62" s="3">
-        <v>536300</v>
+        <v>518300</v>
       </c>
       <c r="G62" s="3">
-        <v>734400</v>
+        <v>709800</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2128,16 +2128,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5182000</v>
+        <v>5008500</v>
       </c>
       <c r="E66" s="3">
-        <v>5076000</v>
+        <v>4906100</v>
       </c>
       <c r="F66" s="3">
-        <v>5097100</v>
+        <v>4926400</v>
       </c>
       <c r="G66" s="3">
-        <v>5470100</v>
+        <v>5286900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2276,16 +2276,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5086800</v>
+        <v>4916500</v>
       </c>
       <c r="E72" s="3">
-        <v>5371900</v>
+        <v>5192100</v>
       </c>
       <c r="F72" s="3">
-        <v>5352800</v>
+        <v>5173600</v>
       </c>
       <c r="G72" s="3">
-        <v>4817800</v>
+        <v>4656500</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2384,16 +2384,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6678100</v>
+        <v>6454500</v>
       </c>
       <c r="E76" s="3">
-        <v>6630500</v>
+        <v>6408500</v>
       </c>
       <c r="F76" s="3">
-        <v>6345700</v>
+        <v>6133300</v>
       </c>
       <c r="G76" s="3">
-        <v>5892400</v>
+        <v>5695100</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2470,16 +2470,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>591100</v>
+        <v>571300</v>
       </c>
       <c r="E81" s="3">
-        <v>753200</v>
+        <v>728000</v>
       </c>
       <c r="F81" s="3">
-        <v>866600</v>
+        <v>837600</v>
       </c>
       <c r="G81" s="3">
-        <v>1018200</v>
+        <v>984100</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2510,16 +2510,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>616500</v>
+        <v>595900</v>
       </c>
       <c r="E83" s="3">
-        <v>600000</v>
+        <v>579900</v>
       </c>
       <c r="F83" s="3">
-        <v>591400</v>
+        <v>571600</v>
       </c>
       <c r="G83" s="3">
-        <v>572700</v>
+        <v>553600</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2672,16 +2672,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>899300</v>
+        <v>869200</v>
       </c>
       <c r="E89" s="3">
-        <v>1205800</v>
+        <v>1165500</v>
       </c>
       <c r="F89" s="3">
-        <v>1475100</v>
+        <v>1425700</v>
       </c>
       <c r="G89" s="3">
-        <v>1679900</v>
+        <v>1623600</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2712,16 +2712,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-450100</v>
+        <v>-435100</v>
       </c>
       <c r="E91" s="3">
-        <v>-411900</v>
+        <v>-398100</v>
       </c>
       <c r="F91" s="3">
-        <v>-408100</v>
+        <v>-394400</v>
       </c>
       <c r="G91" s="3">
-        <v>-576800</v>
+        <v>-557500</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2793,16 +2793,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-514600</v>
+        <v>-497400</v>
       </c>
       <c r="E94" s="3">
-        <v>-461900</v>
+        <v>-446400</v>
       </c>
       <c r="F94" s="3">
-        <v>-425500</v>
+        <v>-411300</v>
       </c>
       <c r="G94" s="3">
-        <v>-647600</v>
+        <v>-625900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2833,16 +2833,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-473600</v>
+        <v>-457700</v>
       </c>
       <c r="E96" s="3">
-        <v>-466200</v>
+        <v>-450600</v>
       </c>
       <c r="F96" s="3">
-        <v>-446500</v>
+        <v>-431500</v>
       </c>
       <c r="G96" s="3">
-        <v>-415700</v>
+        <v>-401800</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -2941,16 +2941,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-957100</v>
+        <v>-925000</v>
       </c>
       <c r="E100" s="3">
-        <v>-972600</v>
+        <v>-940000</v>
       </c>
       <c r="F100" s="3">
-        <v>-598100</v>
+        <v>-578100</v>
       </c>
       <c r="G100" s="3">
-        <v>-866800</v>
+        <v>-837700</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2968,16 +2968,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>106500</v>
+        <v>102900</v>
       </c>
       <c r="E101" s="3">
-        <v>111100</v>
+        <v>107400</v>
       </c>
       <c r="F101" s="3">
-        <v>-15200</v>
+        <v>-14700</v>
       </c>
       <c r="G101" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -2995,16 +2995,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-465900</v>
+        <v>-450300</v>
       </c>
       <c r="E102" s="3">
-        <v>-117500</v>
+        <v>-113600</v>
       </c>
       <c r="F102" s="3">
-        <v>436200</v>
+        <v>421600</v>
       </c>
       <c r="G102" s="3">
-        <v>162800</v>
+        <v>157400</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
